--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T17:38:01+01:00</t>
+    <t>2023-03-02T19:45:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T21:18:11+01:00</t>
+    <t>2023-03-02T21:55:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T22:37:28+01:00</t>
+    <t>2023-03-02T23:17:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T23:17:06+01:00</t>
+    <t>2023-03-03T00:07:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:07:18+01:00</t>
+    <t>2023-03-03T00:29:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:29:20+01:00</t>
+    <t>2023-03-03T03:09:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -661,7 +661,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the coding value for classificiation of data elements.</t>
+    <t>Slice based on the category.coding value for classificiation of data elements.</t>
   </si>
   <si>
     <t>openAtEnd</t>
@@ -2419,7 +2419,7 @@
     <col min="26" max="26" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="60.6484375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T03:09:30+01:00</t>
+    <t>2023-03-03T12:59:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:59:12+01:00</t>
+    <t>2023-03-03T15:59:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:59:45+01:00</t>
+    <t>2023-03-03T16:34:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$118</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4621" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4582" uniqueCount="650">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T18:31:25+01:00</t>
+    <t>2023-03-04T00:41:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1106,65 +1106,37 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
-    <t>value:code}
-value:system}</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:hematocritOfBloodCode</t>
-  </si>
-  <si>
-    <t>hematocritOfBloodCode</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:hematocritOfBloodCode.id</t>
-  </si>
-  <si>
     <t>Observation.code.coding.id</t>
   </si>
   <si>
-    <t>Observation.code.coding:hematocritOfBloodCode.extension</t>
-  </si>
-  <si>
     <t>Observation.code.coding.extension</t>
   </si>
   <si>
-    <t>Observation.code.coding:hematocritOfBloodCode.system</t>
-  </si>
-  <si>
     <t>Observation.code.coding.system</t>
   </si>
   <si>
     <t>http://loinc.org</t>
   </si>
   <si>
-    <t>Observation.code.coding:hematocritOfBloodCode.version</t>
-  </si>
-  <si>
     <t>Observation.code.coding.version</t>
   </si>
   <si>
-    <t>Observation.code.coding:hematocritOfBloodCode.code</t>
-  </si>
-  <si>
     <t>Observation.code.coding.code</t>
   </si>
   <si>
-    <t>59260-0</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:hematocritOfBloodCode.display</t>
+    <t>20570-8</t>
   </si>
   <si>
     <t>Observation.code.coding.display</t>
   </si>
   <si>
-    <t>Observation.code.coding:hematocritOfBloodCode.userSelected</t>
-  </si>
-  <si>
     <t>Observation.code.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Hematocrit [Volume Fraction] of Blood</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -2382,7 +2354,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP119"/>
+  <dimension ref="A1:AP118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10075,7 +10047,7 @@
         <v>92</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>82</v>
@@ -10157,7 +10129,7 @@
         <v>104</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>344</v>
@@ -10435,7 +10407,7 @@
         <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>82</v>
@@ -10493,14 +10465,16 @@
         <v>82</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AC67" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>230</v>
@@ -10538,48 +10512,42 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>82</v>
       </c>
@@ -10627,19 +10595,19 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>82</v>
@@ -10648,10 +10616,10 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10662,21 +10630,21 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -10688,15 +10656,17 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10733,31 +10703,31 @@
         <v>82</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -10769,7 +10739,7 @@
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10780,21 +10750,21 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
@@ -10803,27 +10773,29 @@
         <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
@@ -10853,31 +10825,31 @@
         <v>82</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>82</v>
@@ -10886,10 +10858,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10900,10 +10872,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10911,7 +10883,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>
@@ -10926,26 +10898,24 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>362</v>
+        <v>82</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>82</v>
@@ -10987,7 +10957,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -11008,10 +10978,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -11022,10 +10992,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11033,7 +11003,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>92</v>
@@ -11048,24 +11018,26 @@
         <v>93</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>82</v>
+        <v>359</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>82</v>
@@ -11107,7 +11079,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11128,10 +11100,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11142,10 +11114,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11153,7 +11125,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>92</v>
@@ -11168,26 +11140,26 @@
         <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>259</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>82</v>
@@ -11229,7 +11201,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11250,10 +11222,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11264,10 +11236,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11290,19 +11262,19 @@
         <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11351,7 +11323,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11372,10 +11344,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11386,10 +11358,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11397,13 +11369,13 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>82</v>
@@ -11412,19 +11384,19 @@
         <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11434,7 +11406,7 @@
         <v>82</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>82</v>
+        <v>363</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>82</v>
@@ -11473,7 +11445,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11494,10 +11466,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11508,10 +11480,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11534,19 +11506,19 @@
         <v>93</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>215</v>
+        <v>365</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>285</v>
+        <v>366</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>286</v>
+        <v>367</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>287</v>
+        <v>368</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>288</v>
+        <v>369</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11595,7 +11567,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>289</v>
+        <v>364</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11607,22 +11579,22 @@
         <v>104</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>290</v>
+        <v>371</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>291</v>
+        <v>372</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>82</v>
@@ -11630,10 +11602,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11644,7 +11616,7 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>82</v>
@@ -11656,20 +11628,18 @@
         <v>93</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O77" t="s" s="2">
         <v>378</v>
       </c>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>82</v>
       </c>
@@ -11717,13 +11687,13 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>104</v>
@@ -11732,19 +11702,19 @@
         <v>170</v>
       </c>
       <c r="AK77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AL77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="AO77" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>82</v>
@@ -11752,21 +11722,21 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>82</v>
+        <v>381</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>82</v>
@@ -11778,18 +11748,20 @@
         <v>93</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="N78" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>82</v>
       </c>
@@ -11837,13 +11809,13 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>104</v>
@@ -11852,19 +11824,19 @@
         <v>170</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>82</v>
@@ -11872,14 +11844,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11898,19 +11870,19 @@
         <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11959,7 +11931,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11971,22 +11943,22 @@
         <v>104</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>82</v>
@@ -11994,14 +11966,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>401</v>
+        <v>82</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -12020,20 +11992,18 @@
         <v>93</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O80" t="s" s="2">
         <v>406</v>
       </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>82</v>
       </c>
@@ -12081,7 +12051,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12096,19 +12066,19 @@
         <v>105</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AL80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM80" t="s" s="2">
+      <c r="AN80" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AN80" t="s" s="2">
+      <c r="AO80" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>82</v>
@@ -12116,10 +12086,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12130,7 +12100,7 @@
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -12142,18 +12112,20 @@
         <v>93</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O81" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="N81" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>82</v>
       </c>
@@ -12201,22 +12173,22 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>82</v>
+        <v>415</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>82</v>
@@ -12250,7 +12222,7 @@
         <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>82</v>
@@ -12271,10 +12243,10 @@
         <v>422</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>168</v>
+        <v>423</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12311,16 +12283,14 @@
         <v>82</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="AC82" s="2"/>
       <c r="AD82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>419</v>
@@ -12329,41 +12299,43 @@
         <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>104</v>
+        <v>426</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>424</v>
+        <v>82</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>82</v>
+        <v>427</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>82</v>
+        <v>430</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C83" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="D83" t="s" s="2">
         <v>82</v>
       </c>
@@ -12384,19 +12356,19 @@
         <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12433,59 +12405,59 @@
         <v>82</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AC83" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AG83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>437</v>
-      </c>
       <c r="AN83" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
         <v>82</v>
       </c>
@@ -12503,23 +12475,19 @@
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>442</v>
+        <v>215</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>430</v>
+        <v>216</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
@@ -12567,7 +12535,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>428</v>
+        <v>218</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12576,7 +12544,7 @@
         <v>92</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>435</v>
+        <v>82</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>82</v>
@@ -12585,38 +12553,38 @@
         <v>82</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>436</v>
+        <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>437</v>
+        <v>82</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>438</v>
+        <v>113</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>439</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>82</v>
@@ -12628,15 +12596,17 @@
         <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12673,31 +12643,31 @@
         <v>82</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>82</v>
@@ -12709,7 +12679,7 @@
         <v>82</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12720,44 +12690,46 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>140</v>
+        <v>440</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>141</v>
+        <v>441</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>221</v>
+        <v>442</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O86" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
       </c>
@@ -12793,31 +12765,31 @@
         <v>82</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>222</v>
+        <v>445</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>82</v>
@@ -12826,10 +12798,10 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>82</v>
+        <v>446</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>106</v>
+        <v>447</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12840,10 +12812,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12851,22 +12823,22 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I87" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>449</v>
+        <v>115</v>
       </c>
       <c r="L87" t="s" s="2">
         <v>450</v>
@@ -12875,15 +12847,17 @@
         <v>451</v>
       </c>
       <c r="N87" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O87" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="O87" t="s" s="2">
+      <c r="P87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q87" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="P87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q87" s="2"/>
       <c r="R87" t="s" s="2">
         <v>82</v>
       </c>
@@ -12903,13 +12877,13 @@
         <v>82</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>82</v>
+        <v>454</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>82</v>
+        <v>455</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>82</v>
@@ -12927,7 +12901,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12948,10 +12922,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12962,10 +12936,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12973,41 +12947,39 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>259</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q88" t="s" s="2">
-        <v>462</v>
-      </c>
+      <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
         <v>82</v>
       </c>
@@ -13027,31 +12999,31 @@
         <v>82</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>463</v>
+        <v>82</v>
       </c>
       <c r="Z88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF88" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13072,10 +13044,10 @@
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
@@ -13086,10 +13058,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B89" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13112,16 +13084,16 @@
         <v>93</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>472</v>
@@ -13131,7 +13103,7 @@
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
-        <v>82</v>
+        <v>473</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>82</v>
@@ -13173,7 +13145,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13182,7 +13154,7 @@
         <v>92</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>104</v>
+        <v>475</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>105</v>
@@ -13194,10 +13166,10 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
@@ -13208,10 +13180,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13234,10 +13206,10 @@
         <v>93</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>479</v>
@@ -13304,7 +13276,7 @@
         <v>92</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>484</v>
+        <v>104</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>105</v>
@@ -13316,10 +13288,10 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
@@ -13330,10 +13302,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13341,65 +13313,65 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N91" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="M91" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="S91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="Z91" t="s" s="2">
-        <v>82</v>
+        <v>492</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13417,7 +13389,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13426,7 +13398,7 @@
         <v>92</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>104</v>
+        <v>493</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>105</v>
@@ -13438,10 +13410,10 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>474</v>
+        <v>106</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13452,21 +13424,21 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>82</v>
+        <v>496</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>82</v>
@@ -13481,16 +13453,16 @@
         <v>198</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13515,13 +13487,13 @@
         <v>82</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -13539,16 +13511,16 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>502</v>
+        <v>104</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>105</v>
@@ -13557,31 +13529,31 @@
         <v>82</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>82</v>
+        <v>503</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>106</v>
+        <v>504</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>82</v>
+        <v>506</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>505</v>
+        <v>82</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13600,19 +13572,19 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>198</v>
+        <v>508</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13637,13 +13609,13 @@
         <v>82</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>499</v>
+        <v>82</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>510</v>
+        <v>82</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>511</v>
+        <v>82</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>82</v>
@@ -13661,7 +13633,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13679,7 +13651,7 @@
         <v>82</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>512</v>
+        <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>513</v>
@@ -13691,15 +13663,15 @@
         <v>82</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>515</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13710,7 +13682,7 @@
         <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>82</v>
@@ -13722,20 +13694,18 @@
         <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="M94" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>521</v>
-      </c>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
@@ -13759,13 +13729,13 @@
         <v>82</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>82</v>
+        <v>519</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>82</v>
+        <v>520</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>82</v>
@@ -13783,13 +13753,13 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>104</v>
@@ -13801,7 +13771,7 @@
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>82</v>
+        <v>521</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>522</v>
@@ -13813,15 +13783,15 @@
         <v>82</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>82</v>
+        <v>524</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13847,15 +13817,17 @@
         <v>198</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O95" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
       </c>
@@ -13882,10 +13854,10 @@
         <v>341</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>82</v>
@@ -13903,7 +13875,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13921,19 +13893,19 @@
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>530</v>
+        <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>533</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" hidden="true">
@@ -13964,20 +13936,18 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>198</v>
+        <v>535</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="O96" t="s" s="2">
         <v>538</v>
       </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
@@ -14001,13 +13971,13 @@
         <v>82</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>539</v>
+        <v>82</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>540</v>
+        <v>82</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>82</v>
@@ -14037,25 +14007,25 @@
         <v>104</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>82</v>
+        <v>539</v>
       </c>
       <c r="AM96" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AN96" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="AN96" t="s" s="2">
+      <c r="AO96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP96" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP96" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="97" hidden="true">
@@ -14194,7 +14164,7 @@
         <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>82</v>
@@ -14217,7 +14187,9 @@
       <c r="N98" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="O98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
       </c>
@@ -14271,31 +14243,31 @@
         <v>80</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>170</v>
+        <v>558</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>557</v>
+        <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP98" t="s" s="2">
-        <v>560</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99" hidden="true">
@@ -14314,7 +14286,7 @@
         <v>80</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>82</v>
@@ -14326,20 +14298,16 @@
         <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>562</v>
+        <v>215</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>563</v>
+        <v>216</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>566</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>82</v>
       </c>
@@ -14387,19 +14355,19 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>561</v>
+        <v>218</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>567</v>
+        <v>82</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>82</v>
@@ -14408,10 +14376,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>568</v>
+        <v>82</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>569</v>
+        <v>113</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14422,21 +14390,21 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>82</v>
@@ -14448,15 +14416,17 @@
         <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14493,31 +14463,31 @@
         <v>82</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>82</v>
@@ -14529,7 +14499,7 @@
         <v>82</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14540,14 +14510,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>139</v>
+        <v>564</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14560,24 +14530,26 @@
         <v>82</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>141</v>
+        <v>565</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>221</v>
+        <v>566</v>
       </c>
       <c r="N101" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
       </c>
@@ -14613,19 +14585,19 @@
         <v>82</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC101" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>222</v>
+        <v>567</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14660,46 +14632,44 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>573</v>
+        <v>82</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>140</v>
+        <v>569</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>82</v>
       </c>
@@ -14747,31 +14717,31 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AN102" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14808,16 +14778,16 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="M103" t="s" s="2">
-        <v>580</v>
-      </c>
       <c r="N103" t="s" s="2">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14876,10 +14846,10 @@
         <v>92</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>82</v>
@@ -14888,10 +14858,10 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14902,10 +14872,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14928,18 +14898,20 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>578</v>
+        <v>198</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="O104" s="2"/>
+        <v>584</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>585</v>
+      </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
       </c>
@@ -14963,13 +14935,13 @@
         <v>82</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>82</v>
+        <v>586</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>82</v>
+        <v>587</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>82</v>
@@ -14987,7 +14959,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14996,22 +14968,22 @@
         <v>92</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>582</v>
+        <v>104</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>82</v>
+        <v>588</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
@@ -15036,7 +15008,7 @@
         <v>80</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>82</v>
@@ -15085,7 +15057,7 @@
         <v>82</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>119</v>
+        <v>341</v>
       </c>
       <c r="Y105" t="s" s="2">
         <v>595</v>
@@ -15115,7 +15087,7 @@
         <v>80</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>104</v>
@@ -15127,13 +15099,13 @@
         <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15144,10 +15116,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15158,7 +15130,7 @@
         <v>80</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>82</v>
@@ -15170,19 +15142,19 @@
         <v>82</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>198</v>
+        <v>598</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="N106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15207,13 +15179,13 @@
         <v>82</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>604</v>
+        <v>82</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>605</v>
+        <v>82</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>82</v>
@@ -15231,31 +15203,31 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>105</v>
+        <v>603</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>597</v>
+        <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>514</v>
+        <v>605</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
@@ -15292,20 +15264,18 @@
         <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="M107" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="M107" t="s" s="2">
-        <v>609</v>
-      </c>
       <c r="N107" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>611</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>82</v>
       </c>
@@ -15365,7 +15335,7 @@
         <v>104</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>612</v>
+        <v>105</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>82</v>
@@ -15374,10 +15344,10 @@
         <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>613</v>
+        <v>575</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15388,10 +15358,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15402,7 +15372,7 @@
         <v>80</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>82</v>
@@ -15411,19 +15381,19 @@
         <v>82</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>215</v>
+        <v>611</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>259</v>
+        <v>614</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15473,19 +15443,19 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>82</v>
@@ -15494,10 +15464,10 @@
         <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>584</v>
+        <v>615</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -15508,10 +15478,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15534,16 +15504,16 @@
         <v>93</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15593,7 +15563,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15614,10 +15584,10 @@
         <v>82</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15628,10 +15598,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15654,18 +15624,20 @@
         <v>93</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="O110" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="L110" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>82</v>
       </c>
@@ -15713,7 +15685,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15725,7 +15697,7 @@
         <v>104</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>82</v>
@@ -15734,10 +15706,10 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15748,10 +15720,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15762,7 +15734,7 @@
         <v>80</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>82</v>
@@ -15771,23 +15743,19 @@
         <v>82</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>562</v>
+        <v>215</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>633</v>
+        <v>216</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>636</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>82</v>
       </c>
@@ -15835,19 +15803,19 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>632</v>
+        <v>218</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>82</v>
@@ -15856,10 +15824,10 @@
         <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>637</v>
+        <v>82</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>638</v>
+        <v>113</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -15870,21 +15838,21 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>82</v>
@@ -15896,15 +15864,17 @@
         <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N112" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>82</v>
@@ -15941,31 +15911,31 @@
         <v>82</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC112" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>82</v>
@@ -15977,7 +15947,7 @@
         <v>82</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -15988,14 +15958,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>139</v>
+        <v>564</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -16008,24 +15978,26 @@
         <v>82</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>141</v>
+        <v>565</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>221</v>
+        <v>566</v>
       </c>
       <c r="N113" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O113" s="2"/>
+      <c r="O113" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
       </c>
@@ -16061,19 +16033,19 @@
         <v>82</v>
       </c>
       <c r="AB113" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC113" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>222</v>
+        <v>567</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16108,45 +16080,45 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>573</v>
+        <v>82</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J114" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>574</v>
+        <v>634</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>575</v>
+        <v>635</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>143</v>
+        <v>636</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>152</v>
+        <v>340</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
@@ -16171,13 +16143,13 @@
         <v>82</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>82</v>
+        <v>342</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>82</v>
+        <v>343</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>82</v>
@@ -16195,34 +16167,34 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>576</v>
+        <v>633</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>82</v>
+        <v>637</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>82</v>
+        <v>346</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>106</v>
+        <v>347</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>82</v>
+        <v>348</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>82</v>
@@ -16230,10 +16202,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16241,7 +16213,7 @@
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>92</v>
@@ -16256,19 +16228,19 @@
         <v>93</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>198</v>
+        <v>420</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>644</v>
+        <v>422</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>340</v>
+        <v>424</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16293,13 +16265,13 @@
         <v>82</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>82</v>
@@ -16317,10 +16289,10 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>92</v>
@@ -16335,27 +16307,27 @@
         <v>82</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>346</v>
+        <v>428</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>347</v>
+        <v>429</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>348</v>
+        <v>82</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>82</v>
+        <v>430</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16375,22 +16347,22 @@
         <v>82</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>429</v>
+        <v>198</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>431</v>
+        <v>644</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16415,13 +16387,13 @@
         <v>82</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>82</v>
+        <v>490</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>82</v>
+        <v>491</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>82</v>
+        <v>492</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>82</v>
@@ -16439,7 +16411,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16448,7 +16420,7 @@
         <v>92</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>104</v>
+        <v>493</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>105</v>
@@ -16457,38 +16429,38 @@
         <v>82</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>650</v>
+        <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>437</v>
+        <v>106</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP116" t="s" s="2">
-        <v>439</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>82</v>
+        <v>496</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>82</v>
@@ -16503,16 +16475,16 @@
         <v>198</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>652</v>
+        <v>497</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>653</v>
+        <v>498</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>654</v>
+        <v>499</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16537,13 +16509,13 @@
         <v>82</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>82</v>
@@ -16561,16 +16533,16 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>502</v>
+        <v>104</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>105</v>
@@ -16579,31 +16551,31 @@
         <v>82</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>82</v>
+        <v>503</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>106</v>
+        <v>504</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP117" t="s" s="2">
-        <v>82</v>
+        <v>506</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>505</v>
+        <v>82</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16622,19 +16594,19 @@
         <v>82</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>506</v>
+        <v>648</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>507</v>
+        <v>649</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>508</v>
+        <v>556</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>509</v>
+        <v>557</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16659,13 +16631,13 @@
         <v>82</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>499</v>
+        <v>82</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>510</v>
+        <v>82</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>511</v>
+        <v>82</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>82</v>
@@ -16683,7 +16655,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16692,154 +16664,32 @@
         <v>81</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>512</v>
+        <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>513</v>
+        <v>559</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>514</v>
+        <v>560</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="119" hidden="true">
-      <c r="A119" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E119" s="2"/>
-      <c r="F119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="P119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q119" s="2"/>
-      <c r="R119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AO119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP119" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP119">
+  <autoFilter ref="A1:AP118">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16849,7 +16699,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI118">
+  <conditionalFormatting sqref="A2:AI117">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T03:06:34+01:00</t>
+    <t>2023-03-04T04:05:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4582" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4582" uniqueCount="649">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T04:05:22+01:00</t>
+    <t>2023-03-04T20:22:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,14 +657,11 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding}
-</t>
-  </si>
-  <si>
-    <t>Slice based on the category.coding value for classificiation of data elements.</t>
-  </si>
-  <si>
-    <t>openAtEnd</t>
+    <t>value:$this.code}
+value:$this.system}</t>
+  </si>
+  <si>
+    <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -2391,7 +2388,7 @@
     <col min="26" max="26" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -4181,10 +4178,10 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -4208,13 +4205,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -4222,13 +4219,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -4332,13 +4329,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4346,10 +4343,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4372,13 +4369,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4429,7 +4426,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4464,10 +4461,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4496,7 +4493,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4549,7 +4546,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4584,10 +4581,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4610,19 +4607,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4671,7 +4668,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4692,10 +4689,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4706,10 +4703,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4732,13 +4729,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4789,7 +4786,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4824,10 +4821,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4856,7 +4853,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4909,7 +4906,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4944,10 +4941,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4973,65 +4970,65 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5052,10 +5049,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -5066,10 +5063,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5092,16 +5089,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5151,7 +5148,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5172,10 +5169,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -5186,10 +5183,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5215,65 +5212,65 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5294,10 +5291,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5308,10 +5305,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5334,19 +5331,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5395,7 +5392,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5416,10 +5413,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5430,10 +5427,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5456,19 +5453,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5517,7 +5514,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5538,10 +5535,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5552,10 +5549,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5578,19 +5575,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5639,7 +5636,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5660,10 +5657,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5674,13 +5671,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5784,13 +5781,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5798,10 +5795,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5824,13 +5821,13 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5881,7 +5878,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5916,10 +5913,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5948,7 +5945,7 @@
         <v>141</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>143</v>
@@ -6001,7 +5998,7 @@
         <v>146</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -6036,10 +6033,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6062,19 +6059,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6123,7 +6120,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6144,10 +6141,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6158,10 +6155,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6184,13 +6181,13 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6241,7 +6238,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6276,10 +6273,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6308,7 +6305,7 @@
         <v>141</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>143</v>
@@ -6361,7 +6358,7 @@
         <v>146</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6396,10 +6393,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6425,23 +6422,23 @@
         <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>82</v>
@@ -6483,7 +6480,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6504,10 +6501,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6518,10 +6515,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6544,16 +6541,16 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6603,7 +6600,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6624,10 +6621,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6638,10 +6635,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6667,23 +6664,23 @@
         <v>115</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
@@ -6725,7 +6722,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6746,10 +6743,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6760,10 +6757,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6786,19 +6783,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O37" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6847,7 +6844,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6868,10 +6865,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6882,10 +6879,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6908,19 +6905,19 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6969,7 +6966,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6990,10 +6987,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -7004,10 +7001,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7030,19 +7027,19 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7091,7 +7088,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7112,10 +7109,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7126,13 +7123,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7236,13 +7233,13 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -7250,10 +7247,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7276,13 +7273,13 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7333,7 +7330,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7368,10 +7365,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7400,7 +7397,7 @@
         <v>141</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>143</v>
@@ -7453,7 +7450,7 @@
         <v>146</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7488,10 +7485,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7514,19 +7511,19 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7575,7 +7572,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7596,10 +7593,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7610,10 +7607,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7636,13 +7633,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7693,7 +7690,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7728,10 +7725,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7760,7 +7757,7 @@
         <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>143</v>
@@ -7813,7 +7810,7 @@
         <v>146</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7848,10 +7845,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7877,23 +7874,23 @@
         <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>82</v>
@@ -7935,7 +7932,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7956,10 +7953,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7970,10 +7967,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7996,16 +7993,16 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8055,7 +8052,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8076,10 +8073,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8090,10 +8087,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8119,23 +8116,23 @@
         <v>115</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>82</v>
@@ -8177,7 +8174,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8198,10 +8195,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8212,10 +8209,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8238,19 +8235,19 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O49" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8299,7 +8296,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8320,10 +8317,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8334,10 +8331,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8360,19 +8357,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8421,7 +8418,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8442,10 +8439,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8456,10 +8453,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8482,19 +8479,19 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8543,7 +8540,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8564,10 +8561,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8578,13 +8575,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>82</v>
@@ -8688,13 +8685,13 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8702,10 +8699,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8728,13 +8725,13 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8785,7 +8782,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8820,10 +8817,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8852,7 +8849,7 @@
         <v>141</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>143</v>
@@ -8905,7 +8902,7 @@
         <v>146</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8940,10 +8937,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8966,19 +8963,19 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -9027,7 +9024,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9048,10 +9045,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -9062,10 +9059,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9088,13 +9085,13 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9145,7 +9142,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9180,10 +9177,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9212,7 +9209,7 @@
         <v>141</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>143</v>
@@ -9265,7 +9262,7 @@
         <v>146</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9300,10 +9297,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9329,23 +9326,23 @@
         <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>82</v>
@@ -9387,7 +9384,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9408,10 +9405,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9422,10 +9419,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9448,16 +9445,16 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9507,7 +9504,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9528,10 +9525,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9542,10 +9539,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9571,23 +9568,23 @@
         <v>115</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>82</v>
@@ -9629,7 +9626,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9650,10 +9647,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9664,10 +9661,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9690,19 +9687,19 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O61" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9751,7 +9748,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9772,10 +9769,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9786,10 +9783,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9812,19 +9809,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9873,7 +9870,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9894,10 +9891,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9908,10 +9905,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9934,19 +9931,19 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9995,7 +9992,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10016,10 +10013,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10030,14 +10027,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -10059,16 +10056,16 @@
         <v>198</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -10093,14 +10090,14 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="Y64" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="Y64" t="s" s="2">
+      <c r="Z64" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
       </c>
@@ -10117,7 +10114,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>92</v>
@@ -10132,30 +10129,30 @@
         <v>105</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AO64" t="s" s="2">
+      <c r="AP64" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>349</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10178,13 +10175,13 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10235,7 +10232,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10270,10 +10267,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10302,7 +10299,7 @@
         <v>141</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>143</v>
@@ -10355,7 +10352,7 @@
         <v>146</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10390,10 +10387,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10416,19 +10413,19 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10477,7 +10474,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10498,10 +10495,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10512,10 +10509,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10538,13 +10535,13 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10595,7 +10592,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10630,10 +10627,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10662,7 +10659,7 @@
         <v>141</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>143</v>
@@ -10715,7 +10712,7 @@
         <v>146</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10750,10 +10747,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10779,23 +10776,23 @@
         <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
@@ -10837,7 +10834,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10858,10 +10855,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10872,10 +10869,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10898,16 +10895,16 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10957,7 +10954,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10978,10 +10975,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10992,10 +10989,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11021,23 +11018,23 @@
         <v>115</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>82</v>
@@ -11079,7 +11076,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11100,10 +11097,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11114,10 +11111,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11140,19 +11137,19 @@
         <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O73" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11201,7 +11198,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11222,10 +11219,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11236,10 +11233,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11262,19 +11259,19 @@
         <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11323,7 +11320,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11344,10 +11341,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11358,10 +11355,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11384,19 +11381,19 @@
         <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11406,7 +11403,7 @@
         <v>82</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>82</v>
@@ -11445,7 +11442,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11466,10 +11463,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11480,10 +11477,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11506,19 +11503,19 @@
         <v>93</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="N76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11567,7 +11564,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11582,19 +11579,19 @@
         <v>170</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AL76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM76" t="s" s="2">
+      <c r="AN76" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AN76" t="s" s="2">
+      <c r="AO76" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>82</v>
@@ -11602,10 +11599,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11628,16 +11625,16 @@
         <v>93</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11687,7 +11684,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11708,13 +11705,13 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>82</v>
@@ -11722,14 +11719,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11748,19 +11745,19 @@
         <v>93</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="N78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11809,7 +11806,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11824,19 +11821,19 @@
         <v>170</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AL78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AN78" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AN78" t="s" s="2">
+      <c r="AO78" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>82</v>
@@ -11844,14 +11841,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11870,19 +11867,19 @@
         <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11931,7 +11928,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11946,19 +11943,19 @@
         <v>105</v>
       </c>
       <c r="AK79" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AL79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM79" t="s" s="2">
+      <c r="AN79" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AN79" t="s" s="2">
+      <c r="AO79" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>82</v>
@@ -11966,10 +11963,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11992,16 +11989,16 @@
         <v>93</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -12051,7 +12048,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12072,13 +12069,13 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AN80" t="s" s="2">
+      <c r="AO80" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>82</v>
@@ -12086,10 +12083,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12112,19 +12109,19 @@
         <v>93</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12173,7 +12170,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12188,19 +12185,19 @@
         <v>170</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AL81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM81" t="s" s="2">
+      <c r="AN81" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AN81" t="s" s="2">
+      <c r="AO81" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>82</v>
@@ -12208,10 +12205,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12234,19 +12231,19 @@
         <v>93</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12283,7 +12280,7 @@
         <v>82</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AC82" s="2"/>
       <c r="AD82" t="s" s="2">
@@ -12293,7 +12290,7 @@
         <v>146</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12302,7 +12299,7 @@
         <v>92</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>105</v>
@@ -12311,30 +12308,30 @@
         <v>82</v>
       </c>
       <c r="AL82" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AM82" t="s" s="2">
+      <c r="AN82" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AN82" t="s" s="2">
+      <c r="AO82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP82" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP82" t="s" s="2">
-        <v>430</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C83" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>82</v>
@@ -12356,19 +12353,19 @@
         <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="N83" t="s" s="2">
+      <c r="O83" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12417,7 +12414,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12426,36 +12423,36 @@
         <v>92</v>
       </c>
       <c r="AI83" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AJ83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL83" t="s" s="2">
+      <c r="AM83" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AN83" t="s" s="2">
+      <c r="AO83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP83" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP83" t="s" s="2">
-        <v>430</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B84" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12478,13 +12475,13 @@
         <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12535,7 +12532,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12570,10 +12567,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B85" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12602,7 +12599,7 @@
         <v>141</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>143</v>
@@ -12655,7 +12652,7 @@
         <v>146</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12690,10 +12687,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B86" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12716,19 +12713,19 @@
         <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12777,7 +12774,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12798,10 +12795,10 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12812,10 +12809,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B87" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12841,22 +12838,22 @@
         <v>115</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O87" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="N87" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O87" t="s" s="2">
+      <c r="P87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q87" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="P87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q87" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="R87" t="s" s="2">
         <v>82</v>
@@ -12880,28 +12877,28 @@
         <v>188</v>
       </c>
       <c r="Y87" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="Z87" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="Z87" t="s" s="2">
+      <c r="AA87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF87" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12922,10 +12919,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12936,10 +12933,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B88" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12962,19 +12959,19 @@
         <v>93</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O88" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -13023,7 +13020,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13044,10 +13041,10 @@
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
@@ -13058,10 +13055,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B89" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13087,74 +13084,74 @@
         <v>108</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="N89" t="s" s="2">
+      <c r="O89" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF89" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="S89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF89" t="s" s="2">
+      <c r="AG89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI89" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>105</v>
@@ -13166,10 +13163,10 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
@@ -13180,10 +13177,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B90" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13209,65 +13206,65 @@
         <v>115</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N90" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M90" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N90" t="s" s="2">
+      <c r="O90" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q90" s="2"/>
       <c r="R90" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF90" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13288,10 +13285,10 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
@@ -13302,10 +13299,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13331,16 +13328,16 @@
         <v>198</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="N91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13365,40 +13362,40 @@
         <v>82</v>
       </c>
       <c r="X91" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="Y91" t="s" s="2">
+      <c r="Z91" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="Z91" t="s" s="2">
+      <c r="AA91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI91" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>105</v>
@@ -13413,7 +13410,7 @@
         <v>106</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13424,14 +13421,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13453,16 +13450,16 @@
         <v>198</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="N92" t="s" s="2">
+      <c r="O92" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13487,14 +13484,14 @@
         <v>82</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="Y92" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="Z92" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="Z92" t="s" s="2">
-        <v>502</v>
-      </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
       </c>
@@ -13511,7 +13508,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13529,27 +13526,27 @@
         <v>82</v>
       </c>
       <c r="AL92" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="AM92" t="s" s="2">
+      <c r="AN92" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="AN92" t="s" s="2">
+      <c r="AO92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP92" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP92" t="s" s="2">
-        <v>506</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13572,19 +13569,19 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="N93" t="s" s="2">
+      <c r="O93" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13633,7 +13630,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13654,10 +13651,10 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AN93" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
@@ -13668,10 +13665,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13697,13 +13694,13 @@
         <v>198</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13729,14 +13726,14 @@
         <v>82</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y94" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="Z94" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="Z94" t="s" s="2">
-        <v>520</v>
-      </c>
       <c r="AA94" t="s" s="2">
         <v>82</v>
       </c>
@@ -13753,7 +13750,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13771,27 +13768,27 @@
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AM94" t="s" s="2">
+      <c r="AN94" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="AN94" t="s" s="2">
+      <c r="AO94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP94" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP94" t="s" s="2">
-        <v>524</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13817,16 +13814,16 @@
         <v>198</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="N95" t="s" s="2">
+      <c r="O95" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13851,14 +13848,14 @@
         <v>82</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y95" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="Z95" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="Z95" t="s" s="2">
-        <v>531</v>
-      </c>
       <c r="AA95" t="s" s="2">
         <v>82</v>
       </c>
@@ -13875,7 +13872,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13896,10 +13893,10 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -13910,10 +13907,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13936,16 +13933,16 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13995,7 +13992,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14013,27 +14010,27 @@
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AM96" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="AM96" t="s" s="2">
+      <c r="AN96" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="AN96" t="s" s="2">
+      <c r="AO96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP96" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP96" t="s" s="2">
-        <v>542</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14056,16 +14053,16 @@
         <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -14115,7 +14112,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14133,27 +14130,27 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AM97" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="AM97" t="s" s="2">
+      <c r="AN97" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="AN97" t="s" s="2">
+      <c r="AO97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP97" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP97" t="s" s="2">
-        <v>551</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14176,19 +14173,19 @@
         <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14237,7 +14234,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14249,19 +14246,19 @@
         <v>104</v>
       </c>
       <c r="AJ98" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM98" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="AK98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM98" t="s" s="2">
+      <c r="AN98" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14272,10 +14269,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14298,13 +14295,13 @@
         <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="M99" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14355,7 +14352,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14390,10 +14387,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14422,7 +14419,7 @@
         <v>141</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N100" t="s" s="2">
         <v>143</v>
@@ -14475,7 +14472,7 @@
         <v>146</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14510,14 +14507,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14539,10 +14536,10 @@
         <v>140</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="N101" t="s" s="2">
         <v>143</v>
@@ -14597,7 +14594,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14632,10 +14629,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14658,16 +14655,16 @@
         <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14717,7 +14714,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14726,22 +14723,22 @@
         <v>92</v>
       </c>
       <c r="AI102" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="AJ102" t="s" s="2">
+      <c r="AK102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM102" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="AK102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM102" t="s" s="2">
+      <c r="AN102" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14752,10 +14749,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14778,16 +14775,16 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M103" t="s" s="2">
-        <v>579</v>
-      </c>
       <c r="N103" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14837,7 +14834,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14846,22 +14843,22 @@
         <v>92</v>
       </c>
       <c r="AI103" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="AJ103" t="s" s="2">
+      <c r="AK103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM103" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="AK103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="AN103" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14872,10 +14869,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14901,16 +14898,16 @@
         <v>198</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="N104" t="s" s="2">
+      <c r="O104" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -14938,11 +14935,11 @@
         <v>119</v>
       </c>
       <c r="Y104" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="Z104" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="Z104" t="s" s="2">
-        <v>587</v>
-      </c>
       <c r="AA104" t="s" s="2">
         <v>82</v>
       </c>
@@ -14959,7 +14956,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14977,13 +14974,13 @@
         <v>82</v>
       </c>
       <c r="AL104" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AM104" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="AM104" t="s" s="2">
-        <v>589</v>
-      </c>
       <c r="AN104" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
@@ -14994,10 +14991,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15023,16 +15020,16 @@
         <v>198</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="N105" t="s" s="2">
+      <c r="O105" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15057,14 +15054,14 @@
         <v>82</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y105" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="Z105" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="Z105" t="s" s="2">
-        <v>596</v>
-      </c>
       <c r="AA105" t="s" s="2">
         <v>82</v>
       </c>
@@ -15081,7 +15078,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15099,13 +15096,13 @@
         <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AM105" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="AM105" t="s" s="2">
-        <v>589</v>
-      </c>
       <c r="AN105" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15116,10 +15113,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15142,19 +15139,19 @@
         <v>82</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="N106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15203,7 +15200,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15215,19 +15212,19 @@
         <v>104</v>
       </c>
       <c r="AJ106" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM106" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="AK106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM106" t="s" s="2">
+      <c r="AN106" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
@@ -15238,10 +15235,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15264,16 +15261,16 @@
         <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="M107" t="s" s="2">
-        <v>608</v>
-      </c>
       <c r="N107" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -15323,7 +15320,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15344,10 +15341,10 @@
         <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15358,10 +15355,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15384,16 +15381,16 @@
         <v>93</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="L108" t="s" s="2">
+      <c r="M108" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15443,7 +15440,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15464,10 +15461,10 @@
         <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AN108" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -15478,10 +15475,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15504,16 +15501,16 @@
         <v>93</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="M109" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15563,7 +15560,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15584,10 +15581,10 @@
         <v>82</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15598,10 +15595,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15624,19 +15621,19 @@
         <v>93</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="N110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15685,7 +15682,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15706,10 +15703,10 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AN110" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15720,10 +15717,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15746,13 +15743,13 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L111" t="s" s="2">
+      <c r="M111" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -15803,7 +15800,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15838,10 +15835,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15870,7 +15867,7 @@
         <v>141</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N112" t="s" s="2">
         <v>143</v>
@@ -15923,7 +15920,7 @@
         <v>146</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15958,14 +15955,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15987,10 +15984,10 @@
         <v>140</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="N113" t="s" s="2">
         <v>143</v>
@@ -16045,7 +16042,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16080,10 +16077,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16109,16 +16106,16 @@
         <v>198</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="N114" t="s" s="2">
-        <v>636</v>
-      </c>
       <c r="O114" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
@@ -16143,14 +16140,14 @@
         <v>82</v>
       </c>
       <c r="X114" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="Y114" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="Y114" t="s" s="2">
+      <c r="Z114" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="Z114" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="AA114" t="s" s="2">
         <v>82</v>
       </c>
@@ -16167,7 +16164,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>92</v>
@@ -16185,16 +16182,16 @@
         <v>82</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AM114" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AN114" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AN114" t="s" s="2">
+      <c r="AO114" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AO114" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>82</v>
@@ -16202,10 +16199,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16228,19 +16225,19 @@
         <v>93</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N115" t="s" s="2">
         <v>639</v>
       </c>
-      <c r="M115" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>640</v>
-      </c>
       <c r="O115" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16289,7 +16286,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16307,27 +16304,27 @@
         <v>82</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AM115" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AN115" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AN115" t="s" s="2">
+      <c r="AO115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP115" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AO115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP115" t="s" s="2">
-        <v>430</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16353,16 +16350,16 @@
         <v>198</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M116" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="M116" t="s" s="2">
+      <c r="N116" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="N116" t="s" s="2">
-        <v>645</v>
-      </c>
       <c r="O116" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16387,40 +16384,40 @@
         <v>82</v>
       </c>
       <c r="X116" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="Y116" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="Y116" t="s" s="2">
+      <c r="Z116" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="Z116" t="s" s="2">
+      <c r="AA116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI116" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>105</v>
@@ -16435,7 +16432,7 @@
         <v>106</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16446,14 +16443,14 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
@@ -16475,16 +16472,16 @@
         <v>198</v>
       </c>
       <c r="L117" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="M117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="N117" t="s" s="2">
+      <c r="O117" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16509,14 +16506,14 @@
         <v>82</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="Y117" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="Z117" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="Z117" t="s" s="2">
-        <v>502</v>
-      </c>
       <c r="AA117" t="s" s="2">
         <v>82</v>
       </c>
@@ -16533,7 +16530,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16551,27 +16548,27 @@
         <v>82</v>
       </c>
       <c r="AL117" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AM117" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="AM117" t="s" s="2">
+      <c r="AN117" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="AN117" t="s" s="2">
+      <c r="AO117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP117" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="AO117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP117" t="s" s="2">
-        <v>506</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16597,16 +16594,16 @@
         <v>83</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="M118" t="s" s="2">
-        <v>649</v>
-      </c>
       <c r="N118" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="O118" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16655,7 +16652,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16676,10 +16673,10 @@
         <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AN118" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4582" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4582" uniqueCount="650">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T20:22:12+01:00</t>
+    <t>2023-03-05T01:48:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,11 +657,14 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t>value:$this.code}
-value:$this.system}</t>
+    <t xml:space="preserve">value:coding.code}
+</t>
   </si>
   <si>
     <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
+  </si>
+  <si>
+    <t>openAtEnd</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -4178,10 +4181,10 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -4205,13 +4208,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -4219,13 +4222,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -4329,13 +4332,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4343,10 +4346,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4369,13 +4372,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4426,7 +4429,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4461,10 +4464,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4493,7 +4496,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4546,7 +4549,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4581,10 +4584,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4592,13 +4595,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -4607,19 +4610,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4668,7 +4671,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4689,10 +4692,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4703,10 +4706,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4729,13 +4732,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4786,7 +4789,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4821,10 +4824,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4853,7 +4856,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4906,7 +4909,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4941,10 +4944,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4952,13 +4955,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -4970,23 +4973,23 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>82</v>
@@ -5028,7 +5031,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5049,10 +5052,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -5063,10 +5066,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5089,16 +5092,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5148,7 +5151,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5169,10 +5172,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -5183,10 +5186,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5194,13 +5197,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -5212,23 +5215,23 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>82</v>
@@ -5270,7 +5273,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5291,10 +5294,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5305,10 +5308,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5331,19 +5334,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5392,7 +5395,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5413,10 +5416,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5427,10 +5430,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5453,19 +5456,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5514,7 +5517,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5535,10 +5538,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5549,10 +5552,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5575,19 +5578,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5636,7 +5639,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5657,10 +5660,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5671,13 +5674,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5781,13 +5784,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5795,10 +5798,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5821,13 +5824,13 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5878,7 +5881,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5913,10 +5916,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5945,7 +5948,7 @@
         <v>141</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>143</v>
@@ -5998,7 +6001,7 @@
         <v>146</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -6033,10 +6036,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6044,13 +6047,13 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
@@ -6059,19 +6062,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6120,7 +6123,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6141,10 +6144,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6155,10 +6158,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6181,13 +6184,13 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6238,7 +6241,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6273,10 +6276,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6305,7 +6308,7 @@
         <v>141</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>143</v>
@@ -6358,7 +6361,7 @@
         <v>146</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6393,10 +6396,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6404,13 +6407,13 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>82</v>
@@ -6422,23 +6425,23 @@
         <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>82</v>
@@ -6480,7 +6483,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6501,10 +6504,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6515,10 +6518,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6541,16 +6544,16 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6600,7 +6603,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6621,10 +6624,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6635,10 +6638,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6646,13 +6649,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -6664,23 +6667,23 @@
         <v>115</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
@@ -6722,7 +6725,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6743,10 +6746,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6757,10 +6760,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6783,19 +6786,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6844,7 +6847,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6865,10 +6868,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6879,10 +6882,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6905,19 +6908,19 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6966,7 +6969,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6987,10 +6990,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -7001,10 +7004,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7027,19 +7030,19 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7088,7 +7091,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7109,10 +7112,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7123,13 +7126,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7233,13 +7236,13 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -7247,10 +7250,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7273,13 +7276,13 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7330,7 +7333,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7365,10 +7368,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7397,7 +7400,7 @@
         <v>141</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>143</v>
@@ -7450,7 +7453,7 @@
         <v>146</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7485,10 +7488,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7496,13 +7499,13 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
@@ -7511,19 +7514,19 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7572,7 +7575,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7593,10 +7596,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7607,10 +7610,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7633,13 +7636,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7690,7 +7693,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7725,10 +7728,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7757,7 +7760,7 @@
         <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>143</v>
@@ -7810,7 +7813,7 @@
         <v>146</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7845,10 +7848,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7856,13 +7859,13 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
@@ -7874,23 +7877,23 @@
         <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>82</v>
@@ -7932,7 +7935,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7953,10 +7956,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7967,10 +7970,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7993,16 +7996,16 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8052,7 +8055,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8073,10 +8076,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8087,10 +8090,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8098,13 +8101,13 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
@@ -8116,23 +8119,23 @@
         <v>115</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>82</v>
@@ -8174,7 +8177,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8195,10 +8198,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8209,10 +8212,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8235,19 +8238,19 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8296,7 +8299,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8317,10 +8320,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8331,10 +8334,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8357,19 +8360,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8418,7 +8421,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8439,10 +8442,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8453,10 +8456,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8479,19 +8482,19 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8540,7 +8543,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8561,10 +8564,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8575,13 +8578,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>82</v>
@@ -8685,13 +8688,13 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8699,10 +8702,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8725,13 +8728,13 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8782,7 +8785,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8817,10 +8820,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8849,7 +8852,7 @@
         <v>141</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>143</v>
@@ -8902,7 +8905,7 @@
         <v>146</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8937,10 +8940,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8948,13 +8951,13 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -8963,19 +8966,19 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -9024,7 +9027,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9045,10 +9048,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -9059,10 +9062,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9085,13 +9088,13 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9142,7 +9145,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9177,10 +9180,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9209,7 +9212,7 @@
         <v>141</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>143</v>
@@ -9262,7 +9265,7 @@
         <v>146</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9297,10 +9300,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9308,13 +9311,13 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9326,23 +9329,23 @@
         <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>82</v>
@@ -9384,7 +9387,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9405,10 +9408,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9419,10 +9422,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9445,16 +9448,16 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9504,7 +9507,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9525,10 +9528,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9539,10 +9542,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9550,13 +9553,13 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
@@ -9568,23 +9571,23 @@
         <v>115</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>82</v>
@@ -9626,7 +9629,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9647,10 +9650,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9661,10 +9664,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9687,19 +9690,19 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9748,7 +9751,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9769,10 +9772,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9783,10 +9786,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9809,19 +9812,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9870,7 +9873,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9891,10 +9894,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9905,10 +9908,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9931,19 +9934,19 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9992,7 +9995,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10013,10 +10016,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10027,14 +10030,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -10056,16 +10059,16 @@
         <v>198</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -10090,13 +10093,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -10114,7 +10117,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>92</v>
@@ -10129,30 +10132,30 @@
         <v>105</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10175,13 +10178,13 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10232,7 +10235,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10267,10 +10270,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10299,7 +10302,7 @@
         <v>141</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>143</v>
@@ -10352,7 +10355,7 @@
         <v>146</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10387,10 +10390,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10413,19 +10416,19 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10474,7 +10477,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10495,10 +10498,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10509,10 +10512,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10535,13 +10538,13 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10592,7 +10595,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10627,10 +10630,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10659,7 +10662,7 @@
         <v>141</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>143</v>
@@ -10712,7 +10715,7 @@
         <v>146</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10747,10 +10750,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10776,23 +10779,23 @@
         <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
@@ -10834,7 +10837,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10855,10 +10858,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10869,10 +10872,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10895,16 +10898,16 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10954,7 +10957,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10975,10 +10978,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10989,10 +10992,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11018,23 +11021,23 @@
         <v>115</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>82</v>
@@ -11076,7 +11079,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11097,10 +11100,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11111,10 +11114,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11137,19 +11140,19 @@
         <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11198,7 +11201,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11219,10 +11222,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11233,10 +11236,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11259,19 +11262,19 @@
         <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11320,7 +11323,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11341,10 +11344,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11355,10 +11358,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11381,19 +11384,19 @@
         <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11403,7 +11406,7 @@
         <v>82</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>82</v>
@@ -11442,7 +11445,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11463,10 +11466,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11477,10 +11480,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11503,19 +11506,19 @@
         <v>93</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11564,7 +11567,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11579,19 +11582,19 @@
         <v>170</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>82</v>
@@ -11599,10 +11602,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11625,16 +11628,16 @@
         <v>93</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11684,7 +11687,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11705,13 +11708,13 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>82</v>
@@ -11719,14 +11722,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11745,19 +11748,19 @@
         <v>93</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11806,7 +11809,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11821,19 +11824,19 @@
         <v>170</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>82</v>
@@ -11841,14 +11844,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11867,19 +11870,19 @@
         <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11928,7 +11931,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11943,19 +11946,19 @@
         <v>105</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>82</v>
@@ -11963,10 +11966,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11989,16 +11992,16 @@
         <v>93</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -12048,7 +12051,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12069,13 +12072,13 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>82</v>
@@ -12083,10 +12086,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12109,19 +12112,19 @@
         <v>93</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12170,7 +12173,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12185,19 +12188,19 @@
         <v>170</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>82</v>
@@ -12205,10 +12208,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12231,19 +12234,19 @@
         <v>93</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12280,7 +12283,7 @@
         <v>82</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AC82" s="2"/>
       <c r="AD82" t="s" s="2">
@@ -12290,7 +12293,7 @@
         <v>146</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12299,7 +12302,7 @@
         <v>92</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>105</v>
@@ -12308,30 +12311,30 @@
         <v>82</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>82</v>
@@ -12353,19 +12356,19 @@
         <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12414,7 +12417,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12423,7 +12426,7 @@
         <v>92</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>82</v>
@@ -12432,27 +12435,27 @@
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12475,13 +12478,13 @@
         <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12532,7 +12535,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12567,10 +12570,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12599,7 +12602,7 @@
         <v>141</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>143</v>
@@ -12652,7 +12655,7 @@
         <v>146</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12687,10 +12690,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12713,19 +12716,19 @@
         <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12774,7 +12777,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12795,10 +12798,10 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12809,10 +12812,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12838,22 +12841,22 @@
         <v>115</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q87" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="R87" t="s" s="2">
         <v>82</v>
@@ -12877,10 +12880,10 @@
         <v>188</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>82</v>
@@ -12898,7 +12901,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12919,10 +12922,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12933,10 +12936,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12959,19 +12962,19 @@
         <v>93</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -13020,7 +13023,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13041,10 +13044,10 @@
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
@@ -13055,10 +13058,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13084,23 +13087,23 @@
         <v>108</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>82</v>
@@ -13142,7 +13145,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13151,7 +13154,7 @@
         <v>92</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>105</v>
@@ -13163,10 +13166,10 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
@@ -13177,10 +13180,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13206,23 +13209,23 @@
         <v>115</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q90" s="2"/>
       <c r="R90" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="S90" t="s" s="2">
         <v>82</v>
@@ -13264,7 +13267,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13285,10 +13288,10 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
@@ -13299,10 +13302,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13328,16 +13331,16 @@
         <v>198</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13362,13 +13365,13 @@
         <v>82</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13386,7 +13389,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13395,7 +13398,7 @@
         <v>92</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>105</v>
@@ -13410,7 +13413,7 @@
         <v>106</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13421,14 +13424,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13450,16 +13453,16 @@
         <v>198</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13484,13 +13487,13 @@
         <v>82</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -13508,7 +13511,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13526,27 +13529,27 @@
         <v>82</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13569,19 +13572,19 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13630,7 +13633,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13651,10 +13654,10 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
@@ -13665,10 +13668,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13694,13 +13697,13 @@
         <v>198</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13726,13 +13729,13 @@
         <v>82</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>82</v>
@@ -13750,7 +13753,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13768,27 +13771,27 @@
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13814,16 +13817,16 @@
         <v>198</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13848,13 +13851,13 @@
         <v>82</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>82</v>
@@ -13872,7 +13875,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13893,10 +13896,10 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -13907,10 +13910,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13933,16 +13936,16 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13992,7 +13995,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14010,27 +14013,27 @@
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14053,16 +14056,16 @@
         <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -14112,7 +14115,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14130,27 +14133,27 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14173,19 +14176,19 @@
         <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14234,7 +14237,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14246,7 +14249,7 @@
         <v>104</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>82</v>
@@ -14255,10 +14258,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14269,10 +14272,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14295,13 +14298,13 @@
         <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14352,7 +14355,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14387,10 +14390,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14419,7 +14422,7 @@
         <v>141</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N100" t="s" s="2">
         <v>143</v>
@@ -14472,7 +14475,7 @@
         <v>146</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14507,14 +14510,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14536,10 +14539,10 @@
         <v>140</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N101" t="s" s="2">
         <v>143</v>
@@ -14594,7 +14597,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14629,10 +14632,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14655,16 +14658,16 @@
         <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14714,7 +14717,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14723,10 +14726,10 @@
         <v>92</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>82</v>
@@ -14735,10 +14738,10 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14749,10 +14752,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14775,16 +14778,16 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14834,7 +14837,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14843,10 +14846,10 @@
         <v>92</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>82</v>
@@ -14855,10 +14858,10 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14869,10 +14872,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14898,16 +14901,16 @@
         <v>198</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -14935,10 +14938,10 @@
         <v>119</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>82</v>
@@ -14956,7 +14959,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14974,13 +14977,13 @@
         <v>82</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
@@ -14991,10 +14994,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15020,16 +15023,16 @@
         <v>198</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15054,13 +15057,13 @@
         <v>82</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>82</v>
@@ -15078,7 +15081,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15096,13 +15099,13 @@
         <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15113,10 +15116,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15139,19 +15142,19 @@
         <v>82</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15200,7 +15203,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15212,7 +15215,7 @@
         <v>104</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>82</v>
@@ -15221,10 +15224,10 @@
         <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
@@ -15235,10 +15238,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15261,16 +15264,16 @@
         <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -15320,7 +15323,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15341,10 +15344,10 @@
         <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15355,10 +15358,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15381,16 +15384,16 @@
         <v>93</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15440,7 +15443,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15461,10 +15464,10 @@
         <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -15475,10 +15478,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15501,16 +15504,16 @@
         <v>93</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15560,7 +15563,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15581,10 +15584,10 @@
         <v>82</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15595,10 +15598,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15621,19 +15624,19 @@
         <v>93</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15682,7 +15685,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15703,10 +15706,10 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15717,10 +15720,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15743,13 +15746,13 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -15800,7 +15803,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15835,10 +15838,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15867,7 +15870,7 @@
         <v>141</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N112" t="s" s="2">
         <v>143</v>
@@ -15920,7 +15923,7 @@
         <v>146</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15955,14 +15958,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15984,10 +15987,10 @@
         <v>140</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N113" t="s" s="2">
         <v>143</v>
@@ -16042,7 +16045,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16077,10 +16080,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16106,16 +16109,16 @@
         <v>198</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
@@ -16140,13 +16143,13 @@
         <v>82</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>82</v>
@@ -16164,7 +16167,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>92</v>
@@ -16182,16 +16185,16 @@
         <v>82</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>82</v>
@@ -16199,10 +16202,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16225,19 +16228,19 @@
         <v>93</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16286,7 +16289,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16304,27 +16307,27 @@
         <v>82</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16350,16 +16353,16 @@
         <v>198</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16384,13 +16387,13 @@
         <v>82</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>82</v>
@@ -16408,7 +16411,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16417,7 +16420,7 @@
         <v>92</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>105</v>
@@ -16432,7 +16435,7 @@
         <v>106</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16443,14 +16446,14 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
@@ -16472,16 +16475,16 @@
         <v>198</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16506,13 +16509,13 @@
         <v>82</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>82</v>
@@ -16530,7 +16533,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16548,27 +16551,27 @@
         <v>82</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP117" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16594,16 +16597,16 @@
         <v>83</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16652,7 +16655,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16673,10 +16676,10 @@
         <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T01:48:17+01:00</t>
+    <t>2023-03-05T02:26:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T02:26:26+01:00</t>
+    <t>2023-03-05T17:53:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T17:53:57+01:00</t>
+    <t>2023-03-05T18:57:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T18:57:32+01:00</t>
+    <t>2023-03-06T10:30:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:47+01:00</t>
+    <t>2023-03-06T11:09:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:09:37+01:00</t>
+    <t>2023-03-06T11:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:31:12+01:00</t>
+    <t>2023-03-06T13:11:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:11:54+01:00</t>
+    <t>2023-03-06T14:45:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
+    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-obo-cmo-hematocrit-measurement</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T14:45:09+01:00</t>
+    <t>2023-03-06T15:09:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T15:09:59+01:00</t>
+    <t>2023-03-06T16:00:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:00:54+01:00</t>
+    <t>2023-03-06T16:38:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:38:28+01:00</t>
+    <t>2023-03-06T17:18:53+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T17:18:53+01:00</t>
+    <t>2023-03-06T21:43:48+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T21:43:48+01:00</t>
+    <t>2023-03-07T20:03:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4601,7 +4601,7 @@
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -4961,7 +4961,7 @@
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -5203,7 +5203,7 @@
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -6053,7 +6053,7 @@
         <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
@@ -6413,7 +6413,7 @@
         <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>82</v>
@@ -6655,7 +6655,7 @@
         <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -7505,7 +7505,7 @@
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
@@ -7865,7 +7865,7 @@
         <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
@@ -8107,7 +8107,7 @@
         <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
@@ -8957,7 +8957,7 @@
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -9317,7 +9317,7 @@
         <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9559,7 +9559,7 @@
         <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T20:03:22+01:00</t>
+    <t>2023-03-08T09:48:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T09:48:37+01:00</t>
+    <t>2023-03-09T13:29:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$130</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4582" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5044" uniqueCount="664">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T13:29:22+01:00</t>
+    <t>2023-03-10T10:38:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -632,7 +632,7 @@
     <t>Observation.category</t>
   </si>
   <si>
-    <t>4</t>
+    <t>5</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -965,6 +965,48 @@
   </si>
   <si>
     <t>Observation.category:ClinicalMeasurement.text</t>
+  </si>
+  <si>
+    <t>Observation.category:BloodMeasurement</t>
+  </si>
+  <si>
+    <t>BloodMeasurement</t>
+  </si>
+  <si>
+    <t>Observation.category:BloodMeasurement.id</t>
+  </si>
+  <si>
+    <t>Observation.category:BloodMeasurement.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:BloodMeasurement.coding</t>
+  </si>
+  <si>
+    <t>Observation.category:BloodMeasurement.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:BloodMeasurement.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:BloodMeasurement.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.category:BloodMeasurement.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category:BloodMeasurement.coding.code</t>
+  </si>
+  <si>
+    <t>CMO_0000035</t>
+  </si>
+  <si>
+    <t>Observation.category:BloodMeasurement.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category:BloodMeasurement.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category:BloodMeasurement.text</t>
   </si>
   <si>
     <t>Observation.category:BloodCellMeasurement</t>
@@ -2354,7 +2396,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP118"/>
+  <dimension ref="A1:AP130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5077,7 +5119,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6529,7 +6571,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -7981,7 +8023,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9433,7 +9475,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -10033,11 +10075,13 @@
         <v>335</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="D64" t="s" s="2">
-        <v>336</v>
+        <v>82</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -10053,22 +10097,22 @@
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>198</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>337</v>
+        <v>199</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>338</v>
+        <v>200</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>339</v>
+        <v>201</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>340</v>
+        <v>202</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -10093,13 +10137,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>341</v>
+        <v>119</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>342</v>
+        <v>203</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>343</v>
+        <v>204</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -10117,13 +10161,13 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>335</v>
+        <v>196</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>104</v>
@@ -10132,30 +10176,30 @@
         <v>105</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>344</v>
+        <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>345</v>
+        <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>346</v>
+        <v>208</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>347</v>
+        <v>209</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>348</v>
+        <v>210</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>349</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>350</v>
+        <v>214</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10270,10 +10314,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>351</v>
+        <v>220</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10390,10 +10434,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>352</v>
+        <v>224</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10407,7 +10451,7 @@
         <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>82</v>
@@ -10512,10 +10556,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>353</v>
+        <v>234</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10630,10 +10674,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>354</v>
+        <v>236</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10750,10 +10794,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>355</v>
+        <v>238</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10795,7 +10839,7 @@
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
@@ -10872,10 +10916,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>357</v>
+        <v>248</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10883,7 +10927,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>
@@ -10992,10 +11036,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>358</v>
+        <v>256</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11037,7 +11081,7 @@
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>82</v>
@@ -11114,10 +11158,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>360</v>
+        <v>266</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11236,10 +11280,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>361</v>
+        <v>274</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11358,10 +11402,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>362</v>
+        <v>284</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11369,13 +11413,13 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>82</v>
@@ -11406,7 +11450,7 @@
         <v>82</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>363</v>
+        <v>82</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>82</v>
@@ -11480,24 +11524,24 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>82</v>
+        <v>350</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>82</v>
@@ -11506,19 +11550,19 @@
         <v>93</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>365</v>
+        <v>198</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11543,13 +11587,13 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>82</v>
+        <v>357</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11567,10 +11611,10 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>92</v>
@@ -11579,33 +11623,33 @@
         <v>104</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>82</v>
+        <v>359</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>82</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11616,7 +11660,7 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>82</v>
@@ -11625,20 +11669,18 @@
         <v>82</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>375</v>
+        <v>215</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>376</v>
+        <v>216</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>82</v>
@@ -11687,19 +11729,19 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>374</v>
+        <v>218</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>82</v>
@@ -11708,13 +11750,13 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>346</v>
+        <v>82</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>379</v>
+        <v>113</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>373</v>
+        <v>82</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>82</v>
@@ -11722,21 +11764,21 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>381</v>
+        <v>139</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>82</v>
@@ -11745,23 +11787,21 @@
         <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>382</v>
+        <v>140</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>383</v>
+        <v>141</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>384</v>
+        <v>221</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>82</v>
       </c>
@@ -11797,46 +11837,46 @@
         <v>82</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>380</v>
+        <v>222</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>387</v>
+        <v>82</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>388</v>
+        <v>82</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>389</v>
+        <v>106</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>390</v>
+        <v>82</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>82</v>
@@ -11844,24 +11884,24 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>392</v>
+        <v>82</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>82</v>
@@ -11870,19 +11910,19 @@
         <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>393</v>
+        <v>225</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>394</v>
+        <v>226</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>395</v>
+        <v>227</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>396</v>
+        <v>228</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>397</v>
+        <v>229</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11931,13 +11971,13 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>391</v>
+        <v>230</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>104</v>
@@ -11946,19 +11986,19 @@
         <v>105</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>398</v>
+        <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>399</v>
+        <v>231</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>400</v>
+        <v>232</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>401</v>
+        <v>82</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>82</v>
@@ -11966,10 +12006,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11989,20 +12029,18 @@
         <v>82</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>403</v>
+        <v>215</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>404</v>
+        <v>216</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -12051,7 +12089,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>402</v>
+        <v>218</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12060,10 +12098,10 @@
         <v>92</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>82</v>
@@ -12072,13 +12110,13 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>408</v>
+        <v>113</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>409</v>
+        <v>82</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>82</v>
@@ -12086,14 +12124,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>410</v>
+        <v>368</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>410</v>
+        <v>368</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -12109,23 +12147,21 @@
         <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>411</v>
+        <v>140</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>412</v>
+        <v>141</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>413</v>
+        <v>221</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>82</v>
       </c>
@@ -12161,19 +12197,19 @@
         <v>82</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>410</v>
+        <v>222</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12185,22 +12221,22 @@
         <v>104</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>415</v>
+        <v>82</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>416</v>
+        <v>82</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>417</v>
+        <v>106</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>418</v>
+        <v>82</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>82</v>
@@ -12208,10 +12244,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>419</v>
+        <v>369</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>419</v>
+        <v>369</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12219,7 +12255,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>92</v>
@@ -12234,26 +12270,26 @@
         <v>93</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>420</v>
+        <v>108</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>421</v>
+        <v>239</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>422</v>
+        <v>240</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>423</v>
+        <v>241</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>424</v>
+        <v>242</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>82</v>
@@ -12283,17 +12319,19 @@
         <v>82</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AC82" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>419</v>
+        <v>244</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12302,7 +12340,7 @@
         <v>92</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>426</v>
+        <v>104</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>105</v>
@@ -12311,31 +12349,29 @@
         <v>82</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>428</v>
+        <v>245</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>429</v>
+        <v>246</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>430</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>431</v>
+        <v>371</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
         <v>82</v>
       </c>
@@ -12356,20 +12392,18 @@
         <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>433</v>
+        <v>215</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>421</v>
+        <v>249</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>422</v>
+        <v>250</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>82</v>
       </c>
@@ -12417,7 +12451,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>419</v>
+        <v>252</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12426,36 +12460,36 @@
         <v>92</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>426</v>
+        <v>104</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>428</v>
+        <v>253</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>429</v>
+        <v>254</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>430</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>434</v>
+        <v>372</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>435</v>
+        <v>372</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12463,7 +12497,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>92</v>
@@ -12475,25 +12509,29 @@
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>82</v>
@@ -12535,7 +12573,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12544,10 +12582,10 @@
         <v>92</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>82</v>
@@ -12556,10 +12594,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>82</v>
+        <v>263</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>113</v>
+        <v>264</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12570,21 +12608,21 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>436</v>
+        <v>374</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>437</v>
+        <v>374</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>82</v>
@@ -12593,21 +12631,23 @@
         <v>82</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>141</v>
+        <v>267</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O85" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
       </c>
@@ -12643,31 +12683,31 @@
         <v>82</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>82</v>
@@ -12676,10 +12716,10 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>106</v>
+        <v>272</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12690,10 +12730,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>438</v>
+        <v>375</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>439</v>
+        <v>375</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12701,13 +12741,13 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>82</v>
@@ -12716,19 +12756,19 @@
         <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>440</v>
+        <v>275</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>441</v>
+        <v>276</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>442</v>
+        <v>277</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>443</v>
+        <v>278</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>444</v>
+        <v>279</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12777,7 +12817,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>445</v>
+        <v>280</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12798,10 +12838,10 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>446</v>
+        <v>281</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>447</v>
+        <v>282</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12812,10 +12852,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>448</v>
+        <v>376</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>449</v>
+        <v>376</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12823,46 +12863,44 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>450</v>
+        <v>285</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>451</v>
+        <v>286</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>452</v>
+        <v>288</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q87" t="s" s="2">
-        <v>453</v>
-      </c>
+      <c r="Q87" s="2"/>
       <c r="R87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>82</v>
+        <v>377</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>82</v>
@@ -12877,13 +12915,13 @@
         <v>82</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>454</v>
+        <v>82</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>455</v>
+        <v>82</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>82</v>
@@ -12901,7 +12939,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>456</v>
+        <v>289</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12922,10 +12960,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>457</v>
+        <v>290</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>458</v>
+        <v>291</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12936,10 +12974,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>460</v>
+        <v>378</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12947,13 +12985,13 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>82</v>
@@ -12962,19 +13000,19 @@
         <v>93</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>215</v>
+        <v>379</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>461</v>
+        <v>380</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>462</v>
+        <v>381</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>259</v>
+        <v>382</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>463</v>
+        <v>383</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -13023,7 +13061,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>464</v>
+        <v>378</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13035,22 +13073,22 @@
         <v>104</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>465</v>
+        <v>385</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>466</v>
+        <v>386</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="AP88" t="s" s="2">
         <v>82</v>
@@ -13058,10 +13096,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>467</v>
+        <v>388</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>468</v>
+        <v>388</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13069,13 +13107,13 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>82</v>
@@ -13084,26 +13122,24 @@
         <v>93</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>108</v>
+        <v>389</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>469</v>
+        <v>390</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>470</v>
+        <v>391</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
-        <v>473</v>
+        <v>82</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>82</v>
@@ -13145,19 +13181,19 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>474</v>
+        <v>388</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>475</v>
+        <v>104</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>82</v>
@@ -13166,13 +13202,13 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>465</v>
+        <v>360</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>476</v>
+        <v>393</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>82</v>
@@ -13180,24 +13216,24 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>477</v>
+        <v>394</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>478</v>
+        <v>394</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>82</v>
+        <v>395</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>82</v>
@@ -13206,26 +13242,26 @@
         <v>93</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>115</v>
+        <v>396</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>479</v>
+        <v>397</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>479</v>
+        <v>398</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>480</v>
+        <v>399</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>481</v>
+        <v>400</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q90" s="2"/>
       <c r="R90" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
       <c r="S90" t="s" s="2">
         <v>82</v>
@@ -13267,7 +13303,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>483</v>
+        <v>394</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13279,22 +13315,22 @@
         <v>104</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>465</v>
+        <v>402</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>484</v>
+        <v>403</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>82</v>
+        <v>404</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>82</v>
@@ -13302,14 +13338,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>485</v>
+        <v>405</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>485</v>
+        <v>405</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>82</v>
+        <v>406</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13325,22 +13361,22 @@
         <v>82</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>198</v>
+        <v>407</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>486</v>
+        <v>408</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>487</v>
+        <v>409</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>488</v>
+        <v>410</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>489</v>
+        <v>411</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13365,13 +13401,13 @@
         <v>82</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>490</v>
+        <v>82</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>491</v>
+        <v>82</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>492</v>
+        <v>82</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13389,7 +13425,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>485</v>
+        <v>405</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13398,25 +13434,25 @@
         <v>92</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>493</v>
+        <v>104</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>82</v>
+        <v>412</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>106</v>
+        <v>413</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>494</v>
+        <v>414</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>82</v>
+        <v>415</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>82</v>
@@ -13424,21 +13460,21 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>495</v>
+        <v>416</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>495</v>
+        <v>416</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>496</v>
+        <v>82</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>82</v>
@@ -13447,23 +13483,21 @@
         <v>82</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>198</v>
+        <v>417</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>497</v>
+        <v>418</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>498</v>
+        <v>419</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>82</v>
       </c>
@@ -13487,13 +13521,13 @@
         <v>82</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>490</v>
+        <v>82</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>501</v>
+        <v>82</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>502</v>
+        <v>82</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -13511,13 +13545,13 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>495</v>
+        <v>416</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>104</v>
@@ -13529,27 +13563,27 @@
         <v>82</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>503</v>
+        <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>504</v>
+        <v>421</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>505</v>
+        <v>422</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>82</v>
+        <v>423</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>506</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>507</v>
+        <v>424</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>507</v>
+        <v>424</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13569,22 +13603,22 @@
         <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>508</v>
+        <v>425</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>509</v>
+        <v>426</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>510</v>
+        <v>427</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>511</v>
+        <v>168</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>512</v>
+        <v>428</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13633,7 +13667,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>507</v>
+        <v>424</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13645,22 +13679,22 @@
         <v>104</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>513</v>
+        <v>430</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>514</v>
+        <v>431</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>82</v>
+        <v>432</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>82</v>
@@ -13668,10 +13702,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>515</v>
+        <v>433</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>515</v>
+        <v>433</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13691,21 +13725,23 @@
         <v>82</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>198</v>
+        <v>434</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>516</v>
+        <v>435</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>517</v>
+        <v>436</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="O94" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
@@ -13729,31 +13765,29 @@
         <v>82</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>519</v>
+        <v>82</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>520</v>
+        <v>82</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="AC94" s="2"/>
       <c r="AD94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>515</v>
+        <v>433</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13762,7 +13796,7 @@
         <v>92</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>104</v>
+        <v>440</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>105</v>
@@ -13771,29 +13805,31 @@
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>521</v>
+        <v>441</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>522</v>
+        <v>442</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>523</v>
+        <v>443</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>524</v>
+        <v>444</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>525</v>
+        <v>445</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="D95" t="s" s="2">
         <v>82</v>
       </c>
@@ -13811,22 +13847,22 @@
         <v>82</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>198</v>
+        <v>447</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>526</v>
+        <v>435</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>527</v>
+        <v>436</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>528</v>
+        <v>437</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>529</v>
+        <v>438</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13851,13 +13887,13 @@
         <v>82</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>530</v>
+        <v>82</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>531</v>
+        <v>82</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>82</v>
@@ -13875,7 +13911,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>525</v>
+        <v>433</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13884,36 +13920,36 @@
         <v>92</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>104</v>
+        <v>440</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>82</v>
+        <v>441</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>532</v>
+        <v>442</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>533</v>
+        <v>443</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>82</v>
+        <v>444</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>534</v>
+        <v>448</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>534</v>
+        <v>449</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13936,17 +13972,15 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>535</v>
+        <v>215</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>536</v>
+        <v>216</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>82</v>
@@ -13995,7 +14029,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>534</v>
+        <v>218</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14004,47 +14038,47 @@
         <v>92</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>539</v>
+        <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>540</v>
+        <v>82</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>541</v>
+        <v>113</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>542</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>543</v>
+        <v>450</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>543</v>
+        <v>451</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>82</v>
@@ -14056,16 +14090,16 @@
         <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>544</v>
+        <v>140</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>545</v>
+        <v>141</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>546</v>
+        <v>221</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>547</v>
+        <v>143</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -14103,57 +14137,57 @@
         <v>82</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>543</v>
+        <v>222</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>548</v>
+        <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>549</v>
+        <v>82</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>550</v>
+        <v>106</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>551</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>552</v>
+        <v>452</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>552</v>
+        <v>453</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14161,34 +14195,34 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>553</v>
+        <v>454</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>554</v>
+        <v>455</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>555</v>
+        <v>456</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>556</v>
+        <v>457</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>557</v>
+        <v>458</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14237,19 +14271,19 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>552</v>
+        <v>459</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>558</v>
+        <v>105</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>82</v>
@@ -14258,10 +14292,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>559</v>
+        <v>460</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>560</v>
+        <v>461</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14272,10 +14306,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>561</v>
+        <v>462</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>561</v>
+        <v>463</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14292,26 +14326,32 @@
         <v>82</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>216</v>
+        <v>464</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="R99" t="s" s="2">
         <v>82</v>
       </c>
@@ -14331,13 +14371,13 @@
         <v>82</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>82</v>
+        <v>468</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>82</v>
+        <v>469</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>82</v>
@@ -14355,7 +14395,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>218</v>
+        <v>470</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14364,10 +14404,10 @@
         <v>92</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>82</v>
@@ -14376,10 +14416,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>82</v>
+        <v>471</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>113</v>
+        <v>472</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14390,44 +14430,46 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>562</v>
+        <v>473</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>562</v>
+        <v>474</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>141</v>
+        <v>475</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>221</v>
+        <v>476</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O100" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
       </c>
@@ -14463,31 +14505,31 @@
         <v>82</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>222</v>
+        <v>478</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>82</v>
@@ -14496,10 +14538,10 @@
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>82</v>
+        <v>479</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>106</v>
+        <v>480</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14510,52 +14552,52 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>563</v>
+        <v>481</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>563</v>
+        <v>482</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>564</v>
+        <v>82</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J101" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>565</v>
+        <v>483</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>566</v>
+        <v>484</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>143</v>
+        <v>485</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>152</v>
+        <v>486</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>82</v>
+        <v>487</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>82</v>
@@ -14597,19 +14639,19 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>567</v>
+        <v>488</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>104</v>
+        <v>489</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>82</v>
@@ -14618,10 +14660,10 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>82</v>
+        <v>479</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>106</v>
+        <v>490</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
@@ -14632,10 +14674,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>568</v>
+        <v>491</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>568</v>
+        <v>492</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14643,39 +14685,41 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>569</v>
+        <v>115</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>570</v>
+        <v>493</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>571</v>
+        <v>493</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="O102" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" t="s" s="2">
-        <v>82</v>
+        <v>496</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>82</v>
@@ -14717,7 +14761,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>568</v>
+        <v>497</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14726,10 +14770,10 @@
         <v>92</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>573</v>
+        <v>104</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>574</v>
+        <v>105</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>82</v>
@@ -14738,10 +14782,10 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>575</v>
+        <v>479</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>576</v>
+        <v>498</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14752,10 +14796,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>577</v>
+        <v>499</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>577</v>
+        <v>499</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14778,18 +14822,20 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>569</v>
+        <v>198</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>578</v>
+        <v>500</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>579</v>
+        <v>501</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="O103" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
       </c>
@@ -14813,13 +14859,13 @@
         <v>82</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>82</v>
+        <v>504</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>82</v>
+        <v>505</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>82</v>
+        <v>506</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>82</v>
@@ -14837,7 +14883,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>577</v>
+        <v>499</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14846,10 +14892,10 @@
         <v>92</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>573</v>
+        <v>507</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>574</v>
+        <v>105</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>82</v>
@@ -14858,10 +14904,10 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>575</v>
+        <v>106</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>580</v>
+        <v>508</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14872,21 +14918,21 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>581</v>
+        <v>509</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>581</v>
+        <v>509</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>82</v>
+        <v>510</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>82</v>
@@ -14901,16 +14947,16 @@
         <v>198</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>582</v>
+        <v>511</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>583</v>
+        <v>512</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>584</v>
+        <v>513</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>585</v>
+        <v>514</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -14935,13 +14981,13 @@
         <v>82</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>119</v>
+        <v>504</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>586</v>
+        <v>515</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>587</v>
+        <v>516</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>82</v>
@@ -14959,13 +15005,13 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>581</v>
+        <v>509</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>104</v>
@@ -14977,27 +15023,27 @@
         <v>82</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>588</v>
+        <v>517</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>589</v>
+        <v>518</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP104" t="s" s="2">
-        <v>82</v>
+        <v>520</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>590</v>
+        <v>521</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>590</v>
+        <v>521</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15020,19 +15066,19 @@
         <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>198</v>
+        <v>522</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>591</v>
+        <v>523</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>592</v>
+        <v>524</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>593</v>
+        <v>525</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>594</v>
+        <v>526</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15057,13 +15103,13 @@
         <v>82</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>595</v>
+        <v>82</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>596</v>
+        <v>82</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>82</v>
@@ -15081,7 +15127,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>590</v>
+        <v>521</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15099,13 +15145,13 @@
         <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>588</v>
+        <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>589</v>
+        <v>527</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15116,10 +15162,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>597</v>
+        <v>529</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>597</v>
+        <v>529</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15142,20 +15188,18 @@
         <v>82</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>598</v>
+        <v>198</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>599</v>
+        <v>530</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>600</v>
+        <v>531</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>602</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>82</v>
       </c>
@@ -15179,13 +15223,13 @@
         <v>82</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>82</v>
+        <v>533</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>82</v>
+        <v>534</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>82</v>
@@ -15203,7 +15247,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>597</v>
+        <v>529</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15215,33 +15259,33 @@
         <v>104</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>603</v>
+        <v>105</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>82</v>
+        <v>535</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>604</v>
+        <v>536</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>605</v>
+        <v>537</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP106" t="s" s="2">
-        <v>82</v>
+        <v>538</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>606</v>
+        <v>539</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>606</v>
+        <v>539</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15264,18 +15308,20 @@
         <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>607</v>
+        <v>540</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>608</v>
+        <v>541</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O107" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
       </c>
@@ -15299,13 +15345,13 @@
         <v>82</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>82</v>
+        <v>544</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>82</v>
+        <v>545</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>82</v>
@@ -15323,7 +15369,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>606</v>
+        <v>539</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15344,10 +15390,10 @@
         <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>575</v>
+        <v>546</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>609</v>
+        <v>547</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15358,10 +15404,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>610</v>
+        <v>548</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>610</v>
+        <v>548</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15372,7 +15418,7 @@
         <v>80</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>82</v>
@@ -15381,19 +15427,19 @@
         <v>82</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>611</v>
+        <v>549</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>612</v>
+        <v>550</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>613</v>
+        <v>551</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>614</v>
+        <v>552</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15443,13 +15489,13 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>610</v>
+        <v>548</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>104</v>
@@ -15461,27 +15507,27 @@
         <v>82</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>82</v>
+        <v>553</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>615</v>
+        <v>554</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>616</v>
+        <v>555</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP108" t="s" s="2">
-        <v>82</v>
+        <v>556</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>617</v>
+        <v>557</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>617</v>
+        <v>557</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15492,7 +15538,7 @@
         <v>80</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>82</v>
@@ -15501,19 +15547,19 @@
         <v>82</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>618</v>
+        <v>558</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>619</v>
+        <v>559</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>621</v>
+        <v>561</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15563,13 +15609,13 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>617</v>
+        <v>557</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>104</v>
@@ -15581,27 +15627,27 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>82</v>
+        <v>562</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>615</v>
+        <v>563</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>622</v>
+        <v>564</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP109" t="s" s="2">
-        <v>82</v>
+        <v>565</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>623</v>
+        <v>566</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>623</v>
+        <v>566</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15621,22 +15667,22 @@
         <v>82</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>624</v>
+        <v>568</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>625</v>
+        <v>569</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>626</v>
+        <v>570</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>627</v>
+        <v>571</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15685,7 +15731,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>623</v>
+        <v>566</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15697,7 +15743,7 @@
         <v>104</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>105</v>
+        <v>572</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>82</v>
@@ -15706,10 +15752,10 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>628</v>
+        <v>573</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>629</v>
+        <v>574</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15720,10 +15766,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>630</v>
+        <v>575</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>630</v>
+        <v>575</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15838,10 +15884,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>631</v>
+        <v>576</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>631</v>
+        <v>576</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15958,14 +16004,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>632</v>
+        <v>577</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>632</v>
+        <v>577</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15987,10 +16033,10 @@
         <v>140</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="N113" t="s" s="2">
         <v>143</v>
@@ -16045,7 +16091,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16080,10 +16126,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>633</v>
+        <v>582</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>633</v>
+        <v>582</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16091,7 +16137,7 @@
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>92</v>
@@ -16103,23 +16149,21 @@
         <v>82</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>198</v>
+        <v>583</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>634</v>
+        <v>584</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>635</v>
+        <v>585</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>82</v>
       </c>
@@ -16143,13 +16187,13 @@
         <v>82</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>82</v>
@@ -16167,34 +16211,34 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>633</v>
+        <v>582</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>104</v>
+        <v>587</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>105</v>
+        <v>588</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>637</v>
+        <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>346</v>
+        <v>589</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>347</v>
+        <v>590</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>348</v>
+        <v>82</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>82</v>
@@ -16202,10 +16246,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>638</v>
+        <v>591</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>638</v>
+        <v>591</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16225,23 +16269,21 @@
         <v>82</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>420</v>
+        <v>583</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>639</v>
+        <v>592</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>422</v>
+        <v>593</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>82</v>
       </c>
@@ -16289,7 +16331,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>638</v>
+        <v>591</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16298,36 +16340,36 @@
         <v>92</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>104</v>
+        <v>587</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>105</v>
+        <v>588</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>641</v>
+        <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>428</v>
+        <v>589</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>429</v>
+        <v>594</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>430</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>642</v>
+        <v>595</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>642</v>
+        <v>595</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16353,16 +16395,16 @@
         <v>198</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>643</v>
+        <v>596</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>644</v>
+        <v>597</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>645</v>
+        <v>598</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>489</v>
+        <v>599</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16387,13 +16429,13 @@
         <v>82</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>490</v>
+        <v>119</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>491</v>
+        <v>600</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>492</v>
+        <v>601</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>82</v>
@@ -16411,7 +16453,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>642</v>
+        <v>595</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16420,7 +16462,7 @@
         <v>92</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>493</v>
+        <v>104</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>105</v>
@@ -16429,13 +16471,13 @@
         <v>82</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>82</v>
+        <v>602</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>106</v>
+        <v>603</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16446,14 +16488,14 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>646</v>
+        <v>604</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>646</v>
+        <v>604</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>496</v>
+        <v>82</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
@@ -16475,16 +16517,16 @@
         <v>198</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>497</v>
+        <v>605</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>498</v>
+        <v>606</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>499</v>
+        <v>607</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>500</v>
+        <v>608</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16509,13 +16551,13 @@
         <v>82</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>490</v>
+        <v>355</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>501</v>
+        <v>609</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>502</v>
+        <v>610</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>82</v>
@@ -16533,7 +16575,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>646</v>
+        <v>604</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16551,27 +16593,27 @@
         <v>82</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>503</v>
+        <v>602</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>504</v>
+        <v>603</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP117" t="s" s="2">
-        <v>506</v>
+        <v>82</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>647</v>
+        <v>611</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>647</v>
+        <v>611</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16582,7 +16624,7 @@
         <v>80</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>82</v>
@@ -16594,19 +16636,19 @@
         <v>82</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>83</v>
+        <v>612</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>648</v>
+        <v>613</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>649</v>
+        <v>614</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>556</v>
+        <v>615</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>557</v>
+        <v>616</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16655,41 +16697,1493 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AO118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP118" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="119" hidden="true">
+      <c r="A119" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O119" s="2"/>
+      <c r="P119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q119" s="2"/>
+      <c r="R119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AO119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP119" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="120" hidden="true">
+      <c r="A120" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="O120" s="2"/>
+      <c r="P120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q120" s="2"/>
+      <c r="R120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AO120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP120" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121" hidden="true">
+      <c r="A121" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="O121" s="2"/>
+      <c r="P121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q121" s="2"/>
+      <c r="R121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AO121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP121" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="122" hidden="true">
+      <c r="A122" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="P122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q122" s="2"/>
+      <c r="R122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AO122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP122" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="123" hidden="true">
+      <c r="A123" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+      <c r="P123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q123" s="2"/>
+      <c r="R123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN123" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AO123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP123" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="124" hidden="true">
+      <c r="A124" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O124" s="2"/>
+      <c r="P124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q124" s="2"/>
+      <c r="R124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP124" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="125" hidden="true">
+      <c r="A125" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="P125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q125" s="2"/>
+      <c r="R125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP125" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="126" hidden="true">
+      <c r="A126" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="AG118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH118" t="s" s="2">
+      <c r="B126" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="P126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q126" s="2"/>
+      <c r="R126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AO126" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AP126" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="127" hidden="true">
+      <c r="A127" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="O127" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="P127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q127" s="2"/>
+      <c r="R127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AO127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP127" t="s" s="2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="128" hidden="true">
+      <c r="A128" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="P128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q128" s="2"/>
+      <c r="R128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AN128" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AO128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP128" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="129" hidden="true">
+      <c r="A129" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G129" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AI118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP118" t="s" s="2">
+      <c r="H129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="P129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q129" s="2"/>
+      <c r="R129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AN129" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AO129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP129" t="s" s="2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="130" hidden="true">
+      <c r="A130" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="O130" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="P130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q130" s="2"/>
+      <c r="R130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM130" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AN130" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AO130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP130" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP118">
+  <autoFilter ref="A1:AP130">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16699,7 +18193,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI117">
+  <conditionalFormatting sqref="A2:AI129">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:38:26+01:00</t>
+    <t>2023-03-13T12:04:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1157,7 +1157,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>http://loinc.org</t>
+    <t>https://fhir.loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>
@@ -4223,7 +4223,7 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>207</v>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T12:04:54+01:00</t>
+    <t>2023-03-14T13:58:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T13:58:26+01:00</t>
+    <t>2023-03-14T20:28:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cde-hematocrit-of-blood</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cde-hematocrit-of-blood</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T20:28:45+01:00</t>
+    <t>2023-03-15T20:18:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-obo-cmo-hematocrit-measurement</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-cmo-hematocrit-measurement</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cde-hematocrit-of-blood</t>
+    <t>http://fhir.org/de/StructureDefinition/cde-hematocrit-of-blood</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:18:50+01:00</t>
+    <t>2023-03-16T15:14:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>HL7 International - CDE Katalog Arbeitsgruppe</t>
   </si>
   <si>
     <t>Contact</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-cmo-hematocrit-measurement</t>
+    <t>http://fhir.org/de/StructureDefinition/cls-obo-cmo-hematocrit-measurement</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cde-hematocrit-of-blood</t>
+    <t>http://hl7.org/de/StructureDefinition/cde-hematocrit-of-blood</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:14:40+01:00</t>
+    <t>2023-03-16T17:46:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cls-obo-cmo-hematocrit-measurement</t>
+    <t>http://hl7.org/de/StructureDefinition/cls-obo-cmo-hematocrit-measurement</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4945,7 +4945,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -983,7 +983,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>https://fhir.loinc.org</t>
+    <t>https://loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T16:37:13+02:00</t>
+    <t>2023-03-28T22:15:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T23:17:42+02:00</t>
+    <t>2023-03-29T13:43:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -983,7 +983,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>https://loinc.org</t>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -771,7 +771,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/umls</t>
+    <t>http://www.nlm.nih.gov/research/umls/</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -771,7 +771,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://www.nlm.nih.gov/research/umls/</t>
+    <t>http://www.nlm.nih.gov/research/umls</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
+++ b/output/StructureDefinition-cde-hematocrit-of-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
